--- a/pred_ohlcv/54_21/2019-10-15 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4562248.426286978</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4531796.267386978</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4531796.267386978</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4531522.267386978</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4574423.326186977</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4574723.326186977</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5507724.632611155</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>12734377.34474078</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>11352073.5963556</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11369183.0216556</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11369170.6656556</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11369170.6656556</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>9918314.450870413</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>9918164.450870413</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>7030755.82302391</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>8986823.470974242</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>12012806.11974904</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>12042911.75194904</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>12040436.33544904</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>11545856.90847469</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>11445167.90847469</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>11447367.90847469</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>11449778.90847469</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>11448199.90847469</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>11444079.90847469</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>13067834.52298664</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>14180501.2966815</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>14485813.17148151</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>15491373.19128665</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>16121322.72848665</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>16806810.48238664</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>18578459.65338665</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>22885260.27217227</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>22670957.73963126</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>25193223.66883126</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>25193223.66883126</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>25056076.29011291</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>25056076.29011291</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>24525304.1542129</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>24567857.7494129</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>24567857.7494129</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>24517792.7494129</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>24517803.7494129</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>24517803.7494129</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>24488494.94047607</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>24488494.94047607</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>24488494.94047607</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>24425380.68207607</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>24452302.93987608</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>26089826.65181987</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>26184337.52161702</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>25695418.46764307</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>25501075.40594307</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>25268253.95174307</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>24765420.48404307</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>23944184.84620723</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>25139045.29362128</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>24979709.46742128</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>24863936.69512128</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>24860013.21102129</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>24804285.92652129</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>24921471.23222129</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>25112376.57642129</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>25081303.10882129</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>25067091.55111903</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>25068773.12281903</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>24679507.16972129</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>24679518.16972129</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>24555950.41972129</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>24582936.63022128</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>24395112.06972129</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>23893504.79442129</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 FAB ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4561048.426286978</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4532155.267386978</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4531522.267386978</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4544924.510986977</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4574680.030786977</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>12734377.34474078</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>11352073.5963556</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>11369183.0216556</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11369170.6656556</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11369170.6656556</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>9918314.450870413</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>9918164.450870413</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>7030755.82302391</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>8986823.470974242</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>12012806.11974904</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>12042911.75194904</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>12040436.33544904</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>11545856.90847469</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>11445167.90847469</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>11447367.90847469</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>11449778.90847469</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>11448199.90847469</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>11444079.90847469</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>13067834.52298664</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>14180501.2966815</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>14485813.17148151</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>15491373.19128665</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>16121322.72848665</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>16806810.48238664</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>18578459.65338665</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>22885260.27217227</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>23237929.54559561</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>21943508.57303126</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>22670957.73963126</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>22973426.50203126</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>22375730.45593126</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>22086603.46463126</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>25193223.66883126</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>25193223.66883126</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>25191780.78413126</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>25051468.21053126</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>24914342.72723126</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>25141500.87883126</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>24972995.86133537</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>25108382.50883537</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>25222860.84683949</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>25067648.80060879</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>25056076.29011291</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>25056076.29011291</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>25053498.3424129</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>24425380.68207607</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>24452302.93987608</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>23771327.71024305</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>24037918.11320723</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>23944184.84620723</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>24435492.78692128</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>25139045.29362128</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>24979709.46742128</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>24863936.69512128</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>24843744.24342128</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>24862249.38392128</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>24860013.21102129</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>24804285.92652129</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>24921471.23222129</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>24916439.23222129</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>25112376.57642129</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>25081303.10882129</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>25159231.44031903</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>25067091.55111903</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>25068773.12281903</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>25076459.03942129</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>24679507.16972129</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>24679518.16972129</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>24555950.41972129</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>24582936.63022128</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>24582936.63022128</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>24395112.06972129</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>23893504.79442129</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
